--- a/Phân công công việc/Phân công công việc 1805.xlsx
+++ b/Phân công công việc/Phân công công việc 1805.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Quốc + Tâm: Thiết Kế CSDL access</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>-Phân Công thiết kế màn hình visual:</t>
-  </si>
-  <si>
-    <t>Quốc :Màn Hình Phục Vụ &amp; nhân viên</t>
   </si>
   <si>
     <t>Tâm: Thực đơn &amp; Kho hàng</t>
@@ -142,13 +139,54 @@
   </si>
   <si>
     <t>Bắt tay vào dự án (Visual)</t>
+  </si>
+  <si>
+    <t>Quốc :Màn Hình Chính &amp; Màn Hình Phục Vụ</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>Thiết kế Xử Lý Màn hình Chính &amp; màn phục vụ(Đổi Tách Ghép Bàn, Tính Tiền), Viết các lớp DTO, Các cài đặt phụ cho phần mềm</t>
+  </si>
+  <si>
+    <t>Thiết kế Xử Lý Thực Đơn Bàn Ghế,  In Trước Phiêu tinh Tien, làm luôn phần report hóa đơn luôn (đủ các chức năng thêm xóa sữa, tìm kiếm, xử lý bắt event chuột phải càng tốt</t>
+  </si>
+  <si>
+    <t>Thiết kế Xử Lý các thủ tục thống kê (món, bàn, khu vực) , Viết các lớp DTO,làm luôn phần report cho từng loại doanh thu luôn (đủ các chức năng thêm xóa sữa, tìm kiếm, xử lý bắt event chuột phải càng tốt</t>
+  </si>
+  <si>
+    <t>Thiết kế Xử Lý Quản Lý Hóa Đơn, đăng nhập, người dùng, Làm report cho đủ các phần(đủ các chức năng thêm xóa sữa, tìm kiếm, xử lý bắt event chuột phải càng tốt)</t>
+  </si>
+  <si>
+    <t>Thiết kế Xử Lý Doanh thu (ngày, tuần, tháng, năm),làm luôn phần report cho từng loại doanh thu luôn (đủ các chức năng thêm xóa sữa, tìm kiếm, xử lý bắt event chuột phải càng tốt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhắc Lại Tất Cả làm trên DotnetBar, chuyển Form về Dạng Metro, Ai không hiểu hoặc nếu cần thì sẽ có 1 buỗi hướng dẫn về DotNetBar. Và Lưu ý Hạn Chế Tạo Form Mới Nếu Không Cần Thiết! Nên Làm Trong control Grouppanel hoặc control expandablePanel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +217,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -206,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -290,11 +334,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,13 +455,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -341,6 +474,38 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,7 +1656,7 @@
   <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,91 +1686,91 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1660,19 +1825,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="87.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="11.42578125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="27.42578125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1681,50 +1848,50 @@
       <c r="A3" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9">
         <v>41412</v>
@@ -1736,13 +1903,13 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="str">
         <f>+B8</f>
         <v>Thiết kế cơ sở dữ liệu</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9">
         <v>41412</v>
@@ -1754,12 +1921,12 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9">
         <v>41412</v>
@@ -1771,13 +1938,13 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="str">
         <f>+B10</f>
         <v xml:space="preserve">Thiết kế màn hình Axure </v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>41412</v>
@@ -1791,7 +1958,7 @@
     <row r="12" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
@@ -1800,14 +1967,14 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9">
         <v>41412</v>
@@ -1819,12 +1986,12 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9">
         <v>41412</v>
@@ -1836,12 +2003,12 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9">
         <v>41412</v>
@@ -1853,12 +2020,12 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9">
         <v>41412</v>
@@ -1870,59 +2037,109 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9">
+        <v>41419</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="7"/>
+      <c r="H17" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9">
+        <v>41419</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27">
+        <v>41419</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="15">
+        <v>41419</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="7"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="16">
+        <v>41419</v>
+      </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="7"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -1972,17 +2189,25 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 C8:C26">
+    <dataValidation type="list" imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 C8:C19 C21:C26">
       <formula1>Staff</formula1>
     </dataValidation>
   </dataValidations>

--- a/Phân công công việc/Phân công công việc 1805.xlsx
+++ b/Phân công công việc/Phân công công việc 1805.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Quốc + Tâm: Thiết Kế CSDL access</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Quốc :Màn Hình Chính &amp; Màn Hình Phục Vụ</t>
-  </si>
-  <si>
-    <t>INF</t>
   </si>
   <si>
     <t>Thiết kế Xử Lý Màn hình Chính &amp; màn phục vụ(Đổi Tách Ghép Bàn, Tính Tiền), Viết các lớp DTO, Các cài đặt phụ cho phần mềm</t>
@@ -250,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -338,84 +335,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -425,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -455,13 +374,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,37 +392,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,10 +1648,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1826,7 +1714,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1848,28 +1736,28 @@
       <c r="A3" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1772,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1903,7 +1791,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="7" t="str">
         <f>+B8</f>
         <v>Thiết kế cơ sở dữ liệu</v>
@@ -1921,7 +1809,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1938,7 +1826,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="str">
         <f>+B10</f>
         <v xml:space="preserve">Thiết kế màn hình Axure </v>
@@ -1967,7 +1855,7 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1986,7 +1874,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
@@ -2003,7 +1891,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +1908,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
@@ -2037,11 +1925,11 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>35</v>
@@ -2050,19 +1938,19 @@
         <v>41419</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="17" t="s">
-        <v>39</v>
+      <c r="F17" s="9">
+        <v>41311</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="34" t="s">
-        <v>45</v>
+      <c r="H17" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>36</v>
@@ -2071,75 +1959,75 @@
         <v>41419</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="17" t="s">
-        <v>39</v>
+      <c r="F18" s="9">
+        <v>41311</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="23" t="s">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9">
+        <v>41419</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>41311</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="9">
         <v>41419</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>41311</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="15">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9">
         <v>41419</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="17" t="s">
-        <v>39</v>
+      <c r="F21" s="9">
+        <v>41311</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="16">
-        <v>41419</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -2159,7 +2047,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -2170,12 +2058,6 @@
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2189,17 +2071,11 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="15">
+  <mergeCells count="9">
     <mergeCell ref="H17:H22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A6:A7"/>
@@ -2207,7 +2083,7 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 C8:C19 C21:C26">
+    <dataValidation type="list" imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 C8:C19 C20:C25">
       <formula1>Staff</formula1>
     </dataValidation>
   </dataValidations>
